--- a/Refactorizacion/deberRefactorizar.xlsx
+++ b/Refactorizacion/deberRefactorizar.xlsx
@@ -503,9 +503,6 @@
     <t>Comentarios</t>
   </si>
   <si>
-    <t>Cuando hay comentarios explicativos dentro del metodo.</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -926,6 +923,9 @@
   </si>
   <si>
     <t>El exceso de uso de primitivos hace que la clase sea cada vez mas grande y dificil de controlar, se acumulan.</t>
+  </si>
+  <si>
+    <t>Cuando hay comentarios explicativos dentro del metodo, se ve mas extenso y por lo general es dificil de entender sin el comentario.</t>
   </si>
 </sst>
 </file>
@@ -1028,7 +1028,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1039,26 +1039,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1069,12 +1057,25 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1355,10 +1356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:G72"/>
+  <dimension ref="B3:J72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1369,479 +1370,542 @@
     <col min="7" max="7" width="56.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
+    <row r="3" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="12"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-    </row>
-    <row r="5" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="14" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="13" t="s">
+      <c r="E5" s="5"/>
+      <c r="F5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="13"/>
-    </row>
-    <row r="6" spans="2:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10" t="s">
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="2:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" spans="2:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10" t="s">
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="2:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="10"/>
-    </row>
-    <row r="9" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="15" t="s">
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="15"/>
-    </row>
-    <row r="10" spans="2:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="14" t="s">
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="2:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10" t="s">
+      <c r="E10" s="5"/>
+      <c r="F10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="10"/>
-    </row>
-    <row r="11" spans="2:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10" t="s">
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="2:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="10"/>
-    </row>
-    <row r="12" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="15" t="s">
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="2:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="15"/>
-    </row>
-    <row r="13" spans="2:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10" t="s">
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="2:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="10"/>
-    </row>
-    <row r="14" spans="2:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="10" t="s">
+      <c r="G13" s="5"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+    </row>
+    <row r="14" spans="2:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="4" t="s">
+      <c r="D14" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="2:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="4" t="s">
+      <c r="G14" s="10"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+    </row>
+    <row r="15" spans="2:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="5" t="s">
+      <c r="G15" s="10"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+    </row>
+    <row r="16" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4" t="s">
+      <c r="E16" s="10"/>
+      <c r="F16" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4" t="s">
+      <c r="G16" s="10"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+    </row>
+    <row r="17" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="2:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4" t="s">
+      <c r="G17" s="10"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+    </row>
+    <row r="18" spans="2:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="2:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="5" t="s">
+      <c r="G18" s="10"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+    </row>
+    <row r="19" spans="2:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4" t="s">
+      <c r="E19" s="10"/>
+      <c r="F19" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4" t="s">
+      <c r="G19" s="10"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+    </row>
+    <row r="20" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4" t="s">
+      <c r="G20" s="10"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+    </row>
+    <row r="21" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="2:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G21" s="10"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+    </row>
+    <row r="22" spans="2:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="4" t="s">
+      <c r="E22" s="13"/>
+      <c r="F22" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="5" t="s">
+      <c r="G22" s="10"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+    </row>
+    <row r="23" spans="2:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4" t="s">
+      <c r="G23" s="10"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+    </row>
+    <row r="24" spans="2:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="2:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4" t="s">
+      <c r="G24" s="10"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+    </row>
+    <row r="25" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4" t="s">
+      <c r="G25" s="10"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+    </row>
+    <row r="26" spans="2:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="2:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="5" t="s">
+      <c r="C26" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="D26" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="E26" s="10"/>
+      <c r="F26" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4" t="s">
+      <c r="G26" s="10"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+    </row>
+    <row r="27" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4" t="s">
+      <c r="G27" s="10"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4" t="s">
+      <c r="G28" s="10"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+    </row>
+    <row r="29" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G28" s="4"/>
-    </row>
-    <row r="29" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="5" t="s">
+      <c r="C29" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="D29" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="E29" s="10"/>
+      <c r="F29" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="5" t="s">
+      <c r="G29" s="6"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+    </row>
+    <row r="30" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="G29" s="5"/>
-    </row>
-    <row r="30" spans="2:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4" t="s">
+      <c r="G30" s="10"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+    </row>
+    <row r="31" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="G30" s="4"/>
-    </row>
-    <row r="31" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4" t="s">
+      <c r="G31" s="10"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+    </row>
+    <row r="32" spans="2:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="4" t="s">
+      <c r="C32" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="D32" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="E32" s="10"/>
+      <c r="F32" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4" t="s">
+      <c r="G32" s="10"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+    </row>
+    <row r="33" spans="2:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="G32" s="4"/>
-    </row>
-    <row r="33" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="5" t="s">
+      <c r="G33" s="6"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+    </row>
+    <row r="34" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="G33" s="5"/>
-    </row>
-    <row r="34" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="4" t="s">
+      <c r="C34" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="D34" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="E34" s="10"/>
+      <c r="F34" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E34" s="4"/>
-      <c r="F34" s="6" t="s">
+      <c r="G34" s="14"/>
+    </row>
+    <row r="35" spans="2:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="10"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="G34" s="6"/>
-    </row>
-    <row r="35" spans="2:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="15"/>
+    </row>
+    <row r="36" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="10"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G35" s="7"/>
-    </row>
-    <row r="36" spans="2:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4" t="s">
+      <c r="G36" s="10"/>
+    </row>
+    <row r="37" spans="2:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="G36" s="4"/>
-    </row>
-    <row r="37" spans="2:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="4" t="s">
+      <c r="C37" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="D37" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="E37" s="10"/>
+      <c r="F37" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G37" s="10"/>
+    </row>
+    <row r="38" spans="2:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G37" s="4"/>
-    </row>
-    <row r="38" spans="2:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G38" s="4"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G38" s="10"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
     </row>
@@ -1943,6 +2007,60 @@
     </row>
   </sheetData>
   <mergeCells count="70">
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="D29:E31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:E33"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="D34:E36"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:E38"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D23:E25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="D26:E28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:E21"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="D16:E18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F6:G7"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:E15"/>
     <mergeCell ref="C10:C13"/>
     <mergeCell ref="D10:E13"/>
     <mergeCell ref="F13:G13"/>
@@ -1959,60 +2077,6 @@
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F6:G7"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:E15"/>
-    <mergeCell ref="D16:E18"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:E21"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="D23:E25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="D26:E28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:E38"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="D34:E36"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="D29:E31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:E33"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
